--- a/biology/Botanique/Uvariodendron_mbagoi/Uvariodendron_mbagoi.xlsx
+++ b/biology/Botanique/Uvariodendron_mbagoi/Uvariodendron_mbagoi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Uvariodendron mbagoi est une espèce de plantes dicotylédones de la famille des Annonaceae, sous-famille des Annonoideae, originaire de Tanzanie. Elle fait partie, avec Uvariodendron dzomboense et Uvariodendron schmidtii, d'une série de trois nouvelles espèces du genre Uvariodendron décrites en 2021.
-C'est un arbre ou arbuste pouvant atteindre de 3 à 6 mètres de haut, et de 5 à 10 cm de diamètre à hauteur de poitrine (dhp). Le bois tranché dégage une forte odeur de bergamote (odeur d'agrumes de Citrus bergamia Risso)[1].
-L'épithète spécifique, « mbagoi », est un hommage à Frank Mbago, conservateur de l'herbier de l'Université de Dar es Salam, à qui l'on doit la découverte de cette espèce[1].
+C'est un arbre ou arbuste pouvant atteindre de 3 à 6 mètres de haut, et de 5 à 10 cm de diamètre à hauteur de poitrine (dhp). Le bois tranché dégage une forte odeur de bergamote (odeur d'agrumes de Citrus bergamia Risso).
+L'épithète spécifique, « mbagoi », est un hommage à Frank Mbago, conservateur de l'herbier de l'Université de Dar es Salam, à qui l'on doit la découverte de cette espèce.
 </t>
         </is>
       </c>
